--- a/tests/testthat/_snaps/knitxl/conditions.xlsx
+++ b/tests/testthat/_snaps/knitxl/conditions.xlsx
@@ -99,7 +99,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
